--- a/ozone/multistate/test_ozone_VTZP_MS_1_energies.xlsx
+++ b/ozone/multistate/test_ozone_VTZP_MS_1_energies.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.5619838185071033</v>
+        <v>-0.5619723753647181</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5620222091674805</v>
+        <v>-0.5623362064361572</v>
       </c>
       <c r="F2" t="n">
         <v>-225.24728984</v>
@@ -499,7 +499,7 @@
         <v>-224.6853158</v>
       </c>
       <c r="H2" t="n">
-        <v>-225.2473380091675</v>
+        <v>-225.2476520064362</v>
       </c>
     </row>
     <row r="3">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.5621399350505043</v>
+        <v>-0.5621426324215051</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.560625433921814</v>
+        <v>-0.563429057598114</v>
       </c>
       <c r="F3" t="n">
         <v>-225.24265489</v>
@@ -531,7 +531,7 @@
         <v>-224.68051142</v>
       </c>
       <c r="H3" t="n">
-        <v>-225.2411368539218</v>
+        <v>-225.2439404775981</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>-0.5708418587126228</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5735087394714355</v>
+        <v>-0.5703489184379578</v>
       </c>
       <c r="F4" t="n">
         <v>-225.18667539</v>
@@ -563,7 +563,7 @@
         <v>-224.61583209</v>
       </c>
       <c r="H4" t="n">
-        <v>-225.1893408294714</v>
+        <v>-225.186181008438</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.5616606288861103</v>
+        <v>-0.5616664543465135</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.561684787273407</v>
+        <v>-0.5636884570121765</v>
       </c>
       <c r="F5" t="n">
         <v>-225.25610747</v>
@@ -595,7 +595,7 @@
         <v>-224.69444104</v>
       </c>
       <c r="H5" t="n">
-        <v>-225.2561258272734</v>
+        <v>-225.2581294970122</v>
       </c>
     </row>
     <row r="6">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.5611672315396247</v>
+        <v>-0.5611652321275096</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5637805461883545</v>
+        <v>-0.5610437989234924</v>
       </c>
       <c r="F6" t="n">
         <v>-225.27170583</v>
@@ -627,7 +627,7 @@
         <v>-224.71054171</v>
       </c>
       <c r="H6" t="n">
-        <v>-225.2743222561884</v>
+        <v>-225.2715855089235</v>
       </c>
     </row>
     <row r="7">
@@ -650,7 +650,7 @@
         <v>-0.5777179927039896</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5748579502105713</v>
+        <v>-0.575782835483551</v>
       </c>
       <c r="F7" t="n">
         <v>-225.15680499</v>
@@ -659,7 +659,7 @@
         <v>-224.57908425</v>
       </c>
       <c r="H7" t="n">
-        <v>-225.1539422002106</v>
+        <v>-225.1548670854835</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +682,7 @@
         <v>-0.5613927663232834</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5618463754653931</v>
+        <v>-0.5573757886886597</v>
       </c>
       <c r="F8" t="n">
         <v>-225.26426644</v>
@@ -691,7 +691,7 @@
         <v>-224.70286911</v>
       </c>
       <c r="H8" t="n">
-        <v>-225.2647154854654</v>
+        <v>-225.2602448986887</v>
       </c>
     </row>
     <row r="9">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.5621951231425901</v>
+        <v>-0.5621999871405967</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5623786449432373</v>
+        <v>-0.5637844800949097</v>
       </c>
       <c r="F9" t="n">
         <v>-225.2410786</v>
@@ -723,7 +723,7 @@
         <v>-224.67887615</v>
       </c>
       <c r="H9" t="n">
-        <v>-225.2412547949432</v>
+        <v>-225.2426606300949</v>
       </c>
     </row>
     <row r="10">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.5606795017134489</v>
+        <v>-0.560682958101549</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5600411891937256</v>
+        <v>-0.5610117316246033</v>
       </c>
       <c r="F10" t="n">
         <v>-225.28836604</v>
@@ -755,7 +755,7 @@
         <v>-224.72768227</v>
       </c>
       <c r="H10" t="n">
-        <v>-225.2877234591937</v>
+        <v>-225.2886940016246</v>
       </c>
     </row>
     <row r="11">
@@ -778,7 +778,7 @@
         <v>-0.5606836017816704</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5625494122505188</v>
+        <v>-0.5602583289146423</v>
       </c>
       <c r="F11" t="n">
         <v>-225.29179275</v>
@@ -787,7 +787,7 @@
         <v>-224.73110986</v>
       </c>
       <c r="H11" t="n">
-        <v>-225.2936592722505</v>
+        <v>-225.2913681889146</v>
       </c>
     </row>
     <row r="12">
@@ -810,7 +810,7 @@
         <v>-0.5604517922018678</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5610901117324829</v>
+        <v>-0.5607461929321289</v>
       </c>
       <c r="F12" t="n">
         <v>-225.29803666</v>
@@ -819,7 +819,7 @@
         <v>-224.73758349</v>
       </c>
       <c r="H12" t="n">
-        <v>-225.2986736017325</v>
+        <v>-225.2983296829321</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>-0.5604732820249573</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5582014322280884</v>
+        <v>-0.5584068894386292</v>
       </c>
       <c r="F13" t="n">
         <v>-225.29813744</v>
@@ -851,7 +851,7 @@
         <v>-224.73766292</v>
       </c>
       <c r="H13" t="n">
-        <v>-225.2958643522281</v>
+        <v>-225.2960698094386</v>
       </c>
     </row>
     <row r="14">
@@ -874,7 +874,7 @@
         <v>-0.5604536184002309</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5591620206832886</v>
+        <v>-0.5595546364784241</v>
       </c>
       <c r="F14" t="n">
         <v>-225.29844495</v>
@@ -883,7 +883,7 @@
         <v>-224.73799238</v>
       </c>
       <c r="H14" t="n">
-        <v>-225.2971544006833</v>
+        <v>-225.2975470164784</v>
       </c>
     </row>
     <row r="15">
@@ -906,7 +906,7 @@
         <v>-0.5632658407826493</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.561287522315979</v>
+        <v>-0.5654542446136475</v>
       </c>
       <c r="F15" t="n">
         <v>-225.21587909</v>
@@ -915,7 +915,7 @@
         <v>-224.65261296</v>
       </c>
       <c r="H15" t="n">
-        <v>-225.213900482316</v>
+        <v>-225.2180672046136</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>-0.5607089802995817</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5606751441955566</v>
+        <v>-0.5598024725914001</v>
       </c>
       <c r="F16" t="n">
         <v>-225.29099234</v>
@@ -947,7 +947,7 @@
         <v>-224.73028554</v>
       </c>
       <c r="H16" t="n">
-        <v>-225.2909606841956</v>
+        <v>-225.2900880125914</v>
       </c>
     </row>
     <row r="17">
@@ -970,7 +970,7 @@
         <v>-0.5604621191776546</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5594601631164551</v>
+        <v>-0.5602454543113708</v>
       </c>
       <c r="F17" t="n">
         <v>-225.29837342</v>
@@ -979,7 +979,7 @@
         <v>-224.73791077</v>
       </c>
       <c r="H17" t="n">
-        <v>-225.2973709331165</v>
+        <v>-225.2981562243114</v>
       </c>
     </row>
     <row r="18">
@@ -1002,7 +1002,7 @@
         <v>-0.5714756852011857</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.571226954460144</v>
+        <v>-0.5719387531280518</v>
       </c>
       <c r="F18" t="n">
         <v>-225.18168255</v>
@@ -1011,7 +1011,7 @@
         <v>-224.610209</v>
       </c>
       <c r="H18" t="n">
-        <v>-225.1814359544601</v>
+        <v>-225.182147753128</v>
       </c>
     </row>
     <row r="19">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.5719423183067741</v>
+        <v>-0.571936232841328</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.575690746307373</v>
+        <v>-0.5740476846694946</v>
       </c>
       <c r="F19" t="n">
         <v>-225.17845637</v>
@@ -1043,7 +1043,7 @@
         <v>-224.60652283</v>
       </c>
       <c r="H19" t="n">
-        <v>-225.1822135763074</v>
+        <v>-225.1805705146695</v>
       </c>
     </row>
     <row r="20">
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.5606023134816703</v>
+        <v>-0.5606092815857704</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.5609006881713867</v>
+        <v>-0.5606786012649536</v>
       </c>
       <c r="F20" t="n">
         <v>-225.29123183</v>
@@ -1075,7 +1075,7 @@
         <v>-224.73062324</v>
       </c>
       <c r="H20" t="n">
-        <v>-225.2915239281714</v>
+        <v>-225.291301841265</v>
       </c>
     </row>
     <row r="21">
@@ -1098,7 +1098,7 @@
         <v>-0.5702750029894568</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.5670473575592041</v>
+        <v>-0.5652536153793335</v>
       </c>
       <c r="F21" t="n">
         <v>-225.19180153</v>
@@ -1107,7 +1107,7 @@
         <v>-224.6215263</v>
       </c>
       <c r="H21" t="n">
-        <v>-225.1885736575592</v>
+        <v>-225.1867799153793</v>
       </c>
     </row>
     <row r="22">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.5622534186297337</v>
+        <v>-0.5622605594956391</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5614203214645386</v>
+        <v>-0.564262330532074</v>
       </c>
       <c r="F22" t="n">
         <v>-225.23948716</v>
@@ -1139,7 +1139,7 @@
         <v>-224.67722444</v>
       </c>
       <c r="H22" t="n">
-        <v>-225.2386447614645</v>
+        <v>-225.2414867705321</v>
       </c>
     </row>
     <row r="23">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.5612391457572916</v>
+        <v>-0.561239006273508</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5623140335083008</v>
+        <v>-0.5611041188240051</v>
       </c>
       <c r="F23" t="n">
         <v>-225.26930985</v>
@@ -1171,7 +1171,7 @@
         <v>-224.70807176</v>
       </c>
       <c r="H23" t="n">
-        <v>-225.2703857935083</v>
+        <v>-225.269175878824</v>
       </c>
     </row>
     <row r="24">
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.561026302686459</v>
+        <v>-0.5610284875250073</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.5613609552383423</v>
+        <v>-0.5632628202438354</v>
       </c>
       <c r="F24" t="n">
         <v>-225.27623664</v>
@@ -1203,7 +1203,7 @@
         <v>-224.71520923</v>
       </c>
       <c r="H24" t="n">
-        <v>-225.2765701852383</v>
+        <v>-225.2784720502438</v>
       </c>
     </row>
     <row r="25">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.5608117002798592</v>
+        <v>-0.5607977838208735</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5598585605621338</v>
+        <v>-0.5601649284362793</v>
       </c>
       <c r="F25" t="n">
         <v>-225.28419289</v>
@@ -1235,7 +1235,7 @@
         <v>-224.723395</v>
       </c>
       <c r="H25" t="n">
-        <v>-225.2832535605621</v>
+        <v>-225.2835599284363</v>
       </c>
     </row>
     <row r="26">
@@ -1258,7 +1258,7 @@
         <v>-0.560536157637761</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.5592856407165527</v>
+        <v>-0.5588302612304688</v>
       </c>
       <c r="F26" t="n">
         <v>-225.29647019</v>
@@ -1267,7 +1267,7 @@
         <v>-224.735934</v>
       </c>
       <c r="H26" t="n">
-        <v>-225.2952196407165</v>
+        <v>-225.2947642612305</v>
       </c>
     </row>
     <row r="27">
@@ -1290,7 +1290,7 @@
         <v>-0.562385397589843</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5633136034011841</v>
+        <v>-0.5608854293823242</v>
       </c>
       <c r="F27" t="n">
         <v>-225.23626113</v>
@@ -1299,7 +1299,7 @@
         <v>-224.67387393</v>
       </c>
       <c r="H27" t="n">
-        <v>-225.2371875334012</v>
+        <v>-225.2347593593823</v>
       </c>
     </row>
     <row r="28">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.5732497205642452</v>
+        <v>-0.5732479011329452</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5736328959465027</v>
+        <v>-0.5743903517723083</v>
       </c>
       <c r="F28" t="n">
         <v>-225.17089455</v>
@@ -1331,7 +1331,7 @@
         <v>-224.5976477</v>
       </c>
       <c r="H28" t="n">
-        <v>-225.1712805959465</v>
+        <v>-225.1720380517723</v>
       </c>
     </row>
     <row r="29">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.5735428779720035</v>
+        <v>-0.5735430243873081</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.5698591470718384</v>
+        <v>-0.5696456432342529</v>
       </c>
       <c r="F29" t="n">
         <v>-225.16949051</v>
@@ -1363,7 +1363,7 @@
         <v>-224.59595025</v>
       </c>
       <c r="H29" t="n">
-        <v>-225.1658093970718</v>
+        <v>-225.1655958932342</v>
       </c>
     </row>
     <row r="30">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-0.5738383042099289</v>
+        <v>-0.5738405126950288</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.5771201848983765</v>
+        <v>-0.5736818313598633</v>
       </c>
       <c r="F30" t="n">
         <v>-225.16812909</v>
@@ -1395,7 +1395,7 @@
         <v>-224.59428536</v>
       </c>
       <c r="H30" t="n">
-        <v>-225.1714055448984</v>
+        <v>-225.1679671913598</v>
       </c>
     </row>
     <row r="31">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.5741522424500409</v>
+        <v>-0.5741622187835131</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.5689795017242432</v>
+        <v>-0.5672807693481445</v>
       </c>
       <c r="F31" t="n">
         <v>-225.16681358</v>
@@ -1427,7 +1427,7 @@
         <v>-224.59265598</v>
       </c>
       <c r="H31" t="n">
-        <v>-225.1616354817242</v>
+        <v>-225.1599367493481</v>
       </c>
     </row>
     <row r="32">
@@ -1450,7 +1450,7 @@
         <v>-0.5773519900515584</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.581459641456604</v>
+        <v>-0.5784933567047119</v>
       </c>
       <c r="F32" t="n">
         <v>-225.15751139</v>
@@ -1459,7 +1459,7 @@
         <v>-224.58015845</v>
       </c>
       <c r="H32" t="n">
-        <v>-225.1616180914566</v>
+        <v>-225.1586518067047</v>
       </c>
     </row>
     <row r="33">
@@ -1482,7 +1482,7 @@
         <v>-0.5614828212435679</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5634884834289551</v>
+        <v>-0.5601404905319214</v>
       </c>
       <c r="F33" t="n">
         <v>-225.26162388</v>
@@ -1491,7 +1491,7 @@
         <v>-224.7001409</v>
       </c>
       <c r="H33" t="n">
-        <v>-225.263629383429</v>
+        <v>-225.2602813905319</v>
       </c>
     </row>
     <row r="34">
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.572697857227552</v>
+        <v>-0.5726926290085215</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5711488723754883</v>
+        <v>-0.56825852394104</v>
       </c>
       <c r="F34" t="n">
         <v>-225.17381977</v>
@@ -1523,7 +1523,7 @@
         <v>-224.60112791</v>
       </c>
       <c r="H34" t="n">
-        <v>-225.1722767823755</v>
+        <v>-225.169386433941</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1546,7 @@
         <v>-0.5604939663242526</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.5602734088897705</v>
+        <v>-0.5580599308013916</v>
       </c>
       <c r="F35" t="n">
         <v>-225.29774517</v>
@@ -1555,7 +1555,7 @@
         <v>-224.73725447</v>
       </c>
       <c r="H35" t="n">
-        <v>-225.2975278788898</v>
+        <v>-225.2953144008014</v>
       </c>
     </row>
     <row r="36">
@@ -1578,7 +1578,7 @@
         <v>-0.560469249582098</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.5571272373199463</v>
+        <v>-0.559697151184082</v>
       </c>
       <c r="F36" t="n">
         <v>-225.29827453</v>
@@ -1587,7 +1587,7 @@
         <v>-224.73780628</v>
       </c>
       <c r="H36" t="n">
-        <v>-225.2949335173199</v>
+        <v>-225.2975034311841</v>
       </c>
     </row>
     <row r="37">
@@ -1610,7 +1610,7 @@
         <v>-0.560455850577817</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5569292902946472</v>
+        <v>-0.5603088140487671</v>
       </c>
       <c r="F37" t="n">
         <v>-225.29784816</v>
@@ -1619,7 +1619,7 @@
         <v>-224.73739237</v>
       </c>
       <c r="H37" t="n">
-        <v>-225.2943216602947</v>
+        <v>-225.2977011840488</v>
       </c>
     </row>
     <row r="38">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-0.5605284072671413</v>
+        <v>-0.5605193435844882</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.5613421201705933</v>
+        <v>-0.5610759258270264</v>
       </c>
       <c r="F38" t="n">
         <v>-225.29469387</v>
@@ -1651,7 +1651,7 @@
         <v>-224.73417095</v>
       </c>
       <c r="H38" t="n">
-        <v>-225.2955130701706</v>
+        <v>-225.295246875827</v>
       </c>
     </row>
     <row r="39">
@@ -1671,10 +1671,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-0.5605148516577712</v>
+        <v>-0.5605106006150381</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.5596194267272949</v>
+        <v>-0.5587769746780396</v>
       </c>
       <c r="F39" t="n">
         <v>-225.29516883</v>
@@ -1683,7 +1683,7 @@
         <v>-224.73465701</v>
       </c>
       <c r="H39" t="n">
-        <v>-225.2942764367273</v>
+        <v>-225.293433984678</v>
       </c>
     </row>
     <row r="40">
@@ -1706,7 +1706,7 @@
         <v>-0.5689926856250462</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.5704160928726196</v>
+        <v>-0.5682787895202637</v>
       </c>
       <c r="F40" t="n">
         <v>-225.20577499</v>
@@ -1715,7 +1715,7 @@
         <v>-224.63677833</v>
       </c>
       <c r="H40" t="n">
-        <v>-225.2071944228726</v>
+        <v>-225.2050571195203</v>
       </c>
     </row>
     <row r="41">
@@ -1738,7 +1738,7 @@
         <v>-0.5605222612350288</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5587618947029114</v>
+        <v>-0.5579029321670532</v>
       </c>
       <c r="F41" t="n">
         <v>-225.29685185</v>
@@ -1747,7 +1747,7 @@
         <v>-224.73632873</v>
       </c>
       <c r="H41" t="n">
-        <v>-225.2950906247029</v>
+        <v>-225.294231662167</v>
       </c>
     </row>
     <row r="42">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-0.5787569477070028</v>
+        <v>-0.5787646950258769</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.5771827697753906</v>
+        <v>-0.5811469554901123</v>
       </c>
       <c r="F42" t="n">
         <v>-225.15512334</v>
@@ -1779,7 +1779,7 @@
         <v>-224.57635988</v>
       </c>
       <c r="H42" t="n">
-        <v>-225.1535426497754</v>
+        <v>-225.1575068354901</v>
       </c>
     </row>
     <row r="43">
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-0.5608580270309531</v>
+        <v>-0.5608487361863992</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.5620384812355042</v>
+        <v>-0.5598319172859192</v>
       </c>
       <c r="F43" t="n">
         <v>-225.2823475</v>
@@ -1811,7 +1811,7 @@
         <v>-224.72149768</v>
       </c>
       <c r="H43" t="n">
-        <v>-225.2835361612355</v>
+        <v>-225.2813295972859</v>
       </c>
     </row>
     <row r="44">
@@ -1834,7 +1834,7 @@
         <v>-0.560549403710723</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.5601578950881958</v>
+        <v>-0.5611345767974854</v>
       </c>
       <c r="F44" t="n">
         <v>-225.29604519</v>
@@ -1843,7 +1843,7 @@
         <v>-224.73549481</v>
       </c>
       <c r="H44" t="n">
-        <v>-225.2956527050882</v>
+        <v>-225.2966293867975</v>
       </c>
     </row>
     <row r="45">
@@ -1866,7 +1866,7 @@
         <v>-0.5604521369994631</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.5577659606933594</v>
+        <v>-0.561301052570343</v>
       </c>
       <c r="F45" t="n">
         <v>-225.29831097</v>
@@ -1875,7 +1875,7 @@
         <v>-224.73786008</v>
       </c>
       <c r="H45" t="n">
-        <v>-225.2956260406933</v>
+        <v>-225.2991611325703</v>
       </c>
     </row>
     <row r="46">
@@ -1898,7 +1898,7 @@
         <v>-0.5701009016048719</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.5713027715682983</v>
+        <v>-0.5699324607849121</v>
       </c>
       <c r="F46" t="n">
         <v>-225.19353172</v>
@@ -1907,7 +1907,7 @@
         <v>-224.62343364</v>
       </c>
       <c r="H46" t="n">
-        <v>-225.1947364115683</v>
+        <v>-225.1933661007849</v>
       </c>
     </row>
     <row r="47">
@@ -1930,7 +1930,7 @@
         <v>-0.563183469340819</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.5631210803985596</v>
+        <v>-0.5639485120773315</v>
       </c>
       <c r="F47" t="n">
         <v>-225.21763223</v>
@@ -1939,7 +1939,7 @@
         <v>-224.65444936</v>
       </c>
       <c r="H47" t="n">
-        <v>-225.2175704403986</v>
+        <v>-225.2183978720773</v>
       </c>
     </row>
     <row r="48">
@@ -1962,7 +1962,7 @@
         <v>-0.560457179594422</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.5612986087799072</v>
+        <v>-0.5603430271148682</v>
       </c>
       <c r="F48" t="n">
         <v>-225.29843434</v>
@@ -1971,7 +1971,7 @@
         <v>-224.73797605</v>
       </c>
       <c r="H48" t="n">
-        <v>-225.2992746587799</v>
+        <v>-225.2983190771149</v>
       </c>
     </row>
     <row r="49">
@@ -1994,7 +1994,7 @@
         <v>-0.560452385262832</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.5583436489105225</v>
+        <v>-0.557708740234375</v>
       </c>
       <c r="F49" t="n">
         <v>-225.29839576</v>
@@ -2003,7 +2003,7 @@
         <v>-224.73794454</v>
       </c>
       <c r="H49" t="n">
-        <v>-225.2962881889105</v>
+        <v>-225.2956532802344</v>
       </c>
     </row>
     <row r="50">
@@ -2026,7 +2026,7 @@
         <v>-0.570458385058267</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5686969757080078</v>
+        <v>-0.5670118927955627</v>
       </c>
       <c r="F50" t="n">
         <v>-225.19008164</v>
@@ -2035,7 +2035,7 @@
         <v>-224.61962327</v>
       </c>
       <c r="H50" t="n">
-        <v>-225.188320245708</v>
+        <v>-225.1866351627956</v>
       </c>
     </row>
     <row r="51">
@@ -2058,7 +2058,7 @@
         <v>-0.5694414094087012</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.5662951469421387</v>
+        <v>-0.5717304944992065</v>
       </c>
       <c r="F51" t="n">
         <v>-225.20051284</v>
@@ -2067,7 +2067,7 @@
         <v>-224.63107071</v>
       </c>
       <c r="H51" t="n">
-        <v>-225.1973658569421</v>
+        <v>-225.2028012044992</v>
       </c>
     </row>
     <row r="52">
@@ -2087,10 +2087,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.5607253075921397</v>
+        <v>-0.5607271783435397</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.5586562156677246</v>
+        <v>-0.5544209480285645</v>
       </c>
       <c r="F52" t="n">
         <v>-225.28677381</v>
@@ -2099,7 +2099,7 @@
         <v>-224.72604705</v>
       </c>
       <c r="H52" t="n">
-        <v>-225.2847032656677</v>
+        <v>-225.2804679980286</v>
       </c>
     </row>
     <row r="53">
@@ -2122,7 +2122,7 @@
         <v>-0.5706497316069356</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5707698464393616</v>
+        <v>-0.569625198841095</v>
       </c>
       <c r="F53" t="n">
         <v>-225.18837211</v>
@@ -2131,7 +2131,7 @@
         <v>-224.61772466</v>
       </c>
       <c r="H53" t="n">
-        <v>-225.1884945064394</v>
+        <v>-225.1873498588411</v>
       </c>
     </row>
     <row r="54">
@@ -2154,7 +2154,7 @@
         <v>-0.5717003146787518</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5716174840927124</v>
+        <v>-0.5719120502471924</v>
       </c>
       <c r="F54" t="n">
         <v>-225.18005784</v>
@@ -2163,7 +2163,7 @@
         <v>-224.6083589</v>
       </c>
       <c r="H54" t="n">
-        <v>-225.1799763840927</v>
+        <v>-225.1802709502472</v>
       </c>
     </row>
     <row r="55">
@@ -2186,7 +2186,7 @@
         <v>-0.5607286647162497</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5632921457290649</v>
+        <v>-0.5599558353424072</v>
       </c>
       <c r="F55" t="n">
         <v>-225.29014069</v>
@@ -2195,7 +2195,7 @@
         <v>-224.72940867</v>
       </c>
       <c r="H55" t="n">
-        <v>-225.2927008157291</v>
+        <v>-225.2893645053424</v>
       </c>
     </row>
     <row r="56">
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-0.580081368253978</v>
+        <v>-0.580073599239095</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5773953199386597</v>
+        <v>-0.5836873054504395</v>
       </c>
       <c r="F56" t="n">
         <v>-225.15384901</v>
@@ -2227,7 +2227,7 @@
         <v>-224.57377734</v>
       </c>
       <c r="H56" t="n">
-        <v>-225.1511726599387</v>
+        <v>-225.1574646454504</v>
       </c>
     </row>
     <row r="57">
@@ -2250,7 +2250,7 @@
         <v>-0.5605834501432756</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5592623353004456</v>
+        <v>-0.5623105764389038</v>
       </c>
       <c r="F57" t="n">
         <v>-225.29506279</v>
@@ -2259,7 +2259,7 @@
         <v>-224.73448079</v>
       </c>
       <c r="H57" t="n">
-        <v>-225.2937431253004</v>
+        <v>-225.2967913664389</v>
       </c>
     </row>
     <row r="58">
@@ -2282,7 +2282,7 @@
         <v>-0.5604816210751256</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5593700408935547</v>
+        <v>-0.5574065446853638</v>
       </c>
       <c r="F58" t="n">
         <v>-225.29796117</v>
@@ -2291,7 +2291,7 @@
         <v>-224.73747909</v>
       </c>
       <c r="H58" t="n">
-        <v>-225.2968491308935</v>
+        <v>-225.2948856346854</v>
       </c>
     </row>
     <row r="59">
@@ -2311,10 +2311,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-0.5610531917523687</v>
+        <v>-0.5610578508710259</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5617958903312683</v>
+        <v>-0.5621241927146912</v>
       </c>
       <c r="F59" t="n">
         <v>-225.27513731</v>
@@ -2323,7 +2323,7 @@
         <v>-224.71407712</v>
       </c>
       <c r="H59" t="n">
-        <v>-225.2758730103313</v>
+        <v>-225.2762013127147</v>
       </c>
     </row>
     <row r="60">
@@ -2346,7 +2346,7 @@
         <v>-0.5605115028067326</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5591880083084106</v>
+        <v>-0.5585331320762634</v>
       </c>
       <c r="F60" t="n">
         <v>-225.29719108</v>
@@ -2355,7 +2355,7 @@
         <v>-224.73667987</v>
       </c>
       <c r="H60" t="n">
-        <v>-225.2958678783084</v>
+        <v>-225.2952130020763</v>
       </c>
     </row>
     <row r="61">
@@ -2378,7 +2378,7 @@
         <v>-0.5687172531517235</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5699336528778076</v>
+        <v>-0.5691347122192383</v>
       </c>
       <c r="F61" t="n">
         <v>-225.20927767</v>
@@ -2387,7 +2387,7 @@
         <v>-224.64055919</v>
       </c>
       <c r="H61" t="n">
-        <v>-225.2104928428778</v>
+        <v>-225.2096939022192</v>
       </c>
     </row>
     <row r="62">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-0.560969101180372</v>
+        <v>-0.560966419168037</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5617361068725586</v>
+        <v>-0.5612812042236328</v>
       </c>
       <c r="F62" t="n">
         <v>-225.27836717</v>
@@ -2419,7 +2419,7 @@
         <v>-224.71740256</v>
       </c>
       <c r="H62" t="n">
-        <v>-225.2791386668726</v>
+        <v>-225.2786837642236</v>
       </c>
     </row>
     <row r="63">
@@ -2442,7 +2442,7 @@
         <v>-0.576985398208453</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5792126655578613</v>
+        <v>-0.5778156518936157</v>
       </c>
       <c r="F63" t="n">
         <v>-225.15828899</v>
@@ -2451,7 +2451,7 @@
         <v>-224.58130537</v>
       </c>
       <c r="H63" t="n">
-        <v>-225.1605180355579</v>
+        <v>-225.1591210218936</v>
       </c>
     </row>
     <row r="64">
@@ -2474,7 +2474,7 @@
         <v>-0.5604823903721423</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5630170106887817</v>
+        <v>-0.5626561045646667</v>
       </c>
       <c r="F64" t="n">
         <v>-225.29641099</v>
@@ -2483,7 +2483,7 @@
         <v>-224.73592775</v>
       </c>
       <c r="H64" t="n">
-        <v>-225.2989447606888</v>
+        <v>-225.2985838545647</v>
       </c>
     </row>
     <row r="65">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-0.5618775238058947</v>
+        <v>-0.5618672644468521</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5608481168746948</v>
+        <v>-0.5613653063774109</v>
       </c>
       <c r="F65" t="n">
         <v>-225.2502982</v>
@@ -2515,7 +2515,7 @@
         <v>-224.68843119</v>
       </c>
       <c r="H65" t="n">
-        <v>-225.2492793068747</v>
+        <v>-225.2497964963774</v>
       </c>
     </row>
     <row r="66">
@@ -2538,7 +2538,7 @@
         <v>-0.5624510182144307</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.5598459243774414</v>
+        <v>-0.5625797510147095</v>
       </c>
       <c r="F66" t="n">
         <v>-225.23462704</v>
@@ -2547,7 +2547,7 @@
         <v>-224.67217541</v>
       </c>
       <c r="H66" t="n">
-        <v>-225.2320213343774</v>
+        <v>-225.2347551610147</v>
       </c>
     </row>
     <row r="67">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-0.5796103470378302</v>
+        <v>-0.5796090865527446</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5711735486984253</v>
+        <v>-0.5795949697494507</v>
       </c>
       <c r="F67" t="n">
         <v>-225.15411244</v>
@@ -2579,7 +2579,7 @@
         <v>-224.57450532</v>
       </c>
       <c r="H67" t="n">
-        <v>-225.1456788686984</v>
+        <v>-225.1541002897494</v>
       </c>
     </row>
     <row r="68">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-0.5617123850124391</v>
+        <v>-0.5617160691764385</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5603764057159424</v>
+        <v>-0.560762882232666</v>
       </c>
       <c r="F68" t="n">
         <v>-225.25468199</v>
@@ -2611,7 +2611,7 @@
         <v>-224.69296704</v>
       </c>
       <c r="H68" t="n">
-        <v>-225.253343445716</v>
+        <v>-225.2537299222327</v>
       </c>
     </row>
     <row r="69">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-0.5799793064350812</v>
+        <v>-0.5799733850909354</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.5801235437393188</v>
+        <v>-0.5817728042602539</v>
       </c>
       <c r="F69" t="n">
         <v>-225.15382173</v>
@@ -2643,7 +2643,7 @@
         <v>-224.57385059</v>
       </c>
       <c r="H69" t="n">
-        <v>-225.1539741337393</v>
+        <v>-225.1556233942603</v>
       </c>
     </row>
     <row r="70">
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-0.5605668986852951</v>
+        <v>-0.5605757728994951</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.5587089657783508</v>
+        <v>-0.5589653253555298</v>
       </c>
       <c r="F70" t="n">
         <v>-225.29250011</v>
@@ -2675,7 +2675,7 @@
         <v>-224.73192366</v>
       </c>
       <c r="H70" t="n">
-        <v>-225.2906326257784</v>
+        <v>-225.2908889853555</v>
       </c>
     </row>
     <row r="71">
@@ -2695,10 +2695,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-0.5609991249045009</v>
+        <v>-0.5609988697189323</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.5586950182914734</v>
+        <v>-0.5582873225212097</v>
       </c>
       <c r="F71" t="n">
         <v>-225.27731337</v>
@@ -2707,7 +2707,7 @@
         <v>-224.71631781</v>
       </c>
       <c r="H71" t="n">
-        <v>-225.2750128282915</v>
+        <v>-225.2746051325212</v>
       </c>
     </row>
     <row r="72">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.5605006846978521</v>
+        <v>-0.5605015333180907</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.5635770559310913</v>
+        <v>-0.5614110231399536</v>
       </c>
       <c r="F72" t="n">
         <v>-225.29561358</v>
@@ -2739,7 +2739,7 @@
         <v>-224.73511193</v>
       </c>
       <c r="H72" t="n">
-        <v>-225.2986889859311</v>
+        <v>-225.2965229531399</v>
       </c>
     </row>
     <row r="73">
@@ -2762,7 +2762,7 @@
         <v>-0.5613585715958251</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5664458274841309</v>
+        <v>-0.560737669467926</v>
       </c>
       <c r="F73" t="n">
         <v>-225.26555831</v>
@@ -2771,7 +2771,7 @@
         <v>-224.70420203</v>
       </c>
       <c r="H73" t="n">
-        <v>-225.2706478574841</v>
+        <v>-225.2649396994679</v>
       </c>
     </row>
     <row r="74">
@@ -2794,7 +2794,7 @@
         <v>-0.56265161045073</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.5617774724960327</v>
+        <v>-0.5611186623573303</v>
       </c>
       <c r="F74" t="n">
         <v>-225.22964682</v>
@@ -2803,7 +2803,7 @@
         <v>-224.66699324</v>
       </c>
       <c r="H74" t="n">
-        <v>-225.228770712496</v>
+        <v>-225.2281119023573</v>
       </c>
     </row>
     <row r="75">
@@ -2826,7 +2826,7 @@
         <v>-0.5604728757416761</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.5552164316177368</v>
+        <v>-0.559076726436615</v>
       </c>
       <c r="F75" t="n">
         <v>-225.29708298</v>
@@ -2835,7 +2835,7 @@
         <v>-224.73661356</v>
       </c>
       <c r="H75" t="n">
-        <v>-225.2918299916177</v>
+        <v>-225.2956902864366</v>
       </c>
     </row>
     <row r="76">
@@ -2858,7 +2858,7 @@
         <v>-0.5605012876083593</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5571378469467163</v>
+        <v>-0.5573785901069641</v>
       </c>
       <c r="F76" t="n">
         <v>-225.29748874</v>
@@ -2867,7 +2867,7 @@
         <v>-224.73698836</v>
       </c>
       <c r="H76" t="n">
-        <v>-225.2941262069467</v>
+        <v>-225.294366950107</v>
       </c>
     </row>
     <row r="77">
@@ -2890,7 +2890,7 @@
         <v>-0.5604582456641501</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5712010860443115</v>
+        <v>-0.5540746450424194</v>
       </c>
       <c r="F77" t="n">
         <v>-225.29762607</v>
@@ -2899,7 +2899,7 @@
         <v>-224.7371667</v>
       </c>
       <c r="H77" t="n">
-        <v>-225.3083677860443</v>
+        <v>-225.2912413450424</v>
       </c>
     </row>
     <row r="78">
@@ -2919,10 +2919,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.5606386890861424</v>
+        <v>-0.5606438528028425</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5621531009674072</v>
+        <v>-0.5609055757522583</v>
       </c>
       <c r="F78" t="n">
         <v>-225.28985297</v>
@@ -2931,7 +2931,7 @@
         <v>-224.72920856</v>
       </c>
       <c r="H78" t="n">
-        <v>-225.2913616609674</v>
+        <v>-225.2901141357522</v>
       </c>
     </row>
     <row r="79">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.5620841302580887</v>
+        <v>-0.5620847725390965</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5595630407333374</v>
+        <v>-0.5638852119445801</v>
       </c>
       <c r="F79" t="n">
         <v>-225.24421573</v>
@@ -2963,7 +2963,7 @@
         <v>-224.68212996</v>
       </c>
       <c r="H79" t="n">
-        <v>-225.2416930007333</v>
+        <v>-225.2460151719446</v>
       </c>
     </row>
     <row r="80">
@@ -2986,7 +2986,7 @@
         <v>-0.5606004713385295</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5615420341491699</v>
+        <v>-0.5623357892036438</v>
       </c>
       <c r="F80" t="n">
         <v>-225.29450344</v>
@@ -2995,7 +2995,7 @@
         <v>-224.73390383</v>
       </c>
       <c r="H80" t="n">
-        <v>-225.2954458641492</v>
+        <v>-225.2962396192036</v>
       </c>
     </row>
     <row r="81">
@@ -3018,7 +3018,7 @@
         <v>-0.5604554078462141</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.5603345632553101</v>
+        <v>-0.5593441724777222</v>
       </c>
       <c r="F81" t="n">
         <v>-225.29845799</v>
@@ -3027,7 +3027,7 @@
         <v>-224.73800309</v>
       </c>
       <c r="H81" t="n">
-        <v>-225.2983376532553</v>
+        <v>-225.2973472624777</v>
       </c>
     </row>
     <row r="82">
@@ -3047,10 +3047,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.5790758193907739</v>
+        <v>-0.5790740874543081</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5846234560012817</v>
+        <v>-0.5811508893966675</v>
       </c>
       <c r="F82" t="n">
         <v>-225.15471078</v>
@@ -3059,7 +3059,7 @@
         <v>-224.57563611</v>
       </c>
       <c r="H82" t="n">
-        <v>-225.1602595660013</v>
+        <v>-225.1567869993967</v>
       </c>
     </row>
     <row r="83">
@@ -3082,7 +3082,7 @@
         <v>-0.5631042205455363</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.5641258955001831</v>
+        <v>-0.5638254880905151</v>
       </c>
       <c r="F83" t="n">
         <v>-225.21937723</v>
@@ -3091,7 +3091,7 @@
         <v>-224.65627556</v>
       </c>
       <c r="H83" t="n">
-        <v>-225.2204014555002</v>
+        <v>-225.2201010480905</v>
       </c>
     </row>
     <row r="84">
@@ -3114,7 +3114,7 @@
         <v>-0.5629439107851546</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.563968300819397</v>
+        <v>-0.5649871826171875</v>
       </c>
       <c r="F84" t="n">
         <v>-225.22284104</v>
@@ -3123,7 +3123,7 @@
         <v>-224.65989599</v>
       </c>
       <c r="H84" t="n">
-        <v>-225.2238642908194</v>
+        <v>-225.2248831726172</v>
       </c>
     </row>
     <row r="85">
@@ -3146,7 +3146,7 @@
         <v>-0.560534222111184</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.5610588192939758</v>
+        <v>-0.5594258308410645</v>
       </c>
       <c r="F85" t="n">
         <v>-225.29418912</v>
@@ -3155,7 +3155,7 @@
         <v>-224.7336542</v>
       </c>
       <c r="H85" t="n">
-        <v>-225.294713019294</v>
+        <v>-225.2930800308411</v>
       </c>
     </row>
     <row r="86">
@@ -3178,7 +3178,7 @@
         <v>-0.5755171479883952</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.5764089822769165</v>
+        <v>-0.5814128518104553</v>
       </c>
       <c r="F86" t="n">
         <v>-225.16206979</v>
@@ -3187,7 +3187,7 @@
         <v>-224.58655638</v>
       </c>
       <c r="H86" t="n">
-        <v>-225.1629653622769</v>
+        <v>-225.1679692318104</v>
       </c>
     </row>
     <row r="87">
@@ -3207,10 +3207,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.5606596869265805</v>
+        <v>-0.5606640512128804</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.5598829984664917</v>
+        <v>-0.5576403141021729</v>
       </c>
       <c r="F87" t="n">
         <v>-225.28912281</v>
@@ -3219,7 +3219,7 @@
         <v>-224.72845916</v>
       </c>
       <c r="H87" t="n">
-        <v>-225.2883421584665</v>
+        <v>-225.2860994741022</v>
       </c>
     </row>
     <row r="88">
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.5607582225278642</v>
+        <v>-0.5607500213750543</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.561116099357605</v>
+        <v>-0.5602400302886963</v>
       </c>
       <c r="F88" t="n">
         <v>-225.28593882</v>
@@ -3251,7 +3251,7 @@
         <v>-224.7251893</v>
       </c>
       <c r="H88" t="n">
-        <v>-225.2863053993576</v>
+        <v>-225.2854293302887</v>
       </c>
     </row>
     <row r="89">
@@ -3274,7 +3274,7 @@
         <v>-0.5762379302233881</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.5799863338470459</v>
+        <v>-0.5802217721939087</v>
       </c>
       <c r="F89" t="n">
         <v>-225.16004904</v>
@@ -3283,7 +3283,7 @@
         <v>-224.58380877</v>
       </c>
       <c r="H89" t="n">
-        <v>-225.163795103847</v>
+        <v>-225.1640305421939</v>
       </c>
     </row>
     <row r="90">
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-0.5729672619570423</v>
+        <v>-0.572963651777042</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.5707095861434937</v>
+        <v>-0.5717689990997314</v>
       </c>
       <c r="F90" t="n">
         <v>-225.17233859</v>
@@ -3315,7 +3315,7 @@
         <v>-224.59937454</v>
       </c>
       <c r="H90" t="n">
-        <v>-225.1700841261435</v>
+        <v>-225.1711435390997</v>
       </c>
     </row>
     <row r="91">
@@ -3338,7 +3338,7 @@
         <v>-0.5628723669011582</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.5641539692878723</v>
+        <v>-0.5646961331367493</v>
       </c>
       <c r="F91" t="n">
         <v>-225.22455837</v>
@@ -3347,7 +3347,7 @@
         <v>-224.66168882</v>
       </c>
       <c r="H91" t="n">
-        <v>-225.2258427892879</v>
+        <v>-225.2263849531367</v>
       </c>
     </row>
     <row r="92">
@@ -3370,7 +3370,7 @@
         <v>-0.5630254679810178</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.5652077198028564</v>
+        <v>-0.5657541751861572</v>
       </c>
       <c r="F92" t="n">
         <v>-225.22111368</v>
@@ -3379,7 +3379,7 @@
         <v>-224.65809126</v>
       </c>
       <c r="H92" t="n">
-        <v>-225.2232989798028</v>
+        <v>-225.2238454351861</v>
       </c>
     </row>
     <row r="93">
@@ -3402,7 +3402,7 @@
         <v>-0.5605676888689297</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.5612994432449341</v>
+        <v>-0.5620288848876953</v>
       </c>
       <c r="F93" t="n">
         <v>-225.29557639</v>
@@ -3411,7 +3411,7 @@
         <v>-224.73501065</v>
       </c>
       <c r="H93" t="n">
-        <v>-225.2963100932449</v>
+        <v>-225.2970395348877</v>
       </c>
     </row>
     <row r="94">
@@ -3434,7 +3434,7 @@
         <v>-0.5699252817178226</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.5719113945960999</v>
+        <v>-0.5671531558036804</v>
       </c>
       <c r="F94" t="n">
         <v>-225.19526927</v>
@@ -3443,7 +3443,7 @@
         <v>-224.62534259</v>
       </c>
       <c r="H94" t="n">
-        <v>-225.1972539845961</v>
+        <v>-225.1924957458037</v>
       </c>
     </row>
     <row r="95">
@@ -3466,7 +3466,7 @@
         <v>-0.5606626867183757</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.5653676390647888</v>
+        <v>-0.563122034072876</v>
       </c>
       <c r="F95" t="n">
         <v>-225.29254332</v>
@@ -3475,7 +3475,7 @@
         <v>-224.73188314</v>
       </c>
       <c r="H95" t="n">
-        <v>-225.2972507790648</v>
+        <v>-225.2950051740729</v>
       </c>
     </row>
     <row r="96">
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-0.5608345091367734</v>
+        <v>-0.5608229082450322</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.563065767288208</v>
+        <v>-0.5603868365287781</v>
       </c>
       <c r="F96" t="n">
         <v>-225.2832825</v>
@@ -3507,7 +3507,7 @@
         <v>-224.72245911</v>
       </c>
       <c r="H96" t="n">
-        <v>-225.2855248772882</v>
+        <v>-225.2828459465288</v>
       </c>
     </row>
     <row r="97">
@@ -3530,7 +3530,7 @@
         <v>-0.5784324775155714</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.5887706875801086</v>
+        <v>-0.5858365297317505</v>
       </c>
       <c r="F97" t="n">
         <v>-225.15561046</v>
@@ -3539,7 +3539,7 @@
         <v>-224.57717974</v>
       </c>
       <c r="H97" t="n">
-        <v>-225.1659504275801</v>
+        <v>-225.1630162697317</v>
       </c>
     </row>
     <row r="98">
@@ -3562,7 +3562,7 @@
         <v>-0.5710441377206942</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.5716348886489868</v>
+        <v>-0.5714678764343262</v>
       </c>
       <c r="F98" t="n">
         <v>-225.18499369</v>
@@ -3571,7 +3571,7 @@
         <v>-224.61394776</v>
       </c>
       <c r="H98" t="n">
-        <v>-225.185582648649</v>
+        <v>-225.1854156364343</v>
       </c>
     </row>
     <row r="99">
@@ -3594,7 +3594,7 @@
         <v>-0.5683291223040872</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.5722469091415405</v>
+        <v>-0.5779937505722046</v>
       </c>
       <c r="F99" t="n">
         <v>-225.21450376</v>
@@ -3603,7 +3603,7 @@
         <v>-224.64617854</v>
       </c>
       <c r="H99" t="n">
-        <v>-225.2184254491415</v>
+        <v>-225.2241722905722</v>
       </c>
     </row>
     <row r="100">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.5612851461368471</v>
+        <v>-0.561275796310949</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.5594977736473083</v>
+        <v>-0.5609252452850342</v>
       </c>
       <c r="F100" t="n">
         <v>-225.2680798</v>
@@ -3635,7 +3635,7 @@
         <v>-224.70680331</v>
       </c>
       <c r="H100" t="n">
-        <v>-225.2663010836473</v>
+        <v>-225.267728555285</v>
       </c>
     </row>
     <row r="101">
@@ -3658,7 +3658,7 @@
         <v>-0.5685840137018696</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.5701937079429626</v>
+        <v>-0.5708984136581421</v>
       </c>
       <c r="F101" t="n">
         <v>-225.21102459</v>
@@ -3667,7 +3667,7 @@
         <v>-224.6424398</v>
       </c>
       <c r="H101" t="n">
-        <v>-225.212633507943</v>
+        <v>-225.2133382136581</v>
       </c>
     </row>
     <row r="102">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.5793573277140518</v>
+        <v>-0.5793627507328656</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.5719996690750122</v>
+        <v>-0.572650671005249</v>
       </c>
       <c r="F102" t="n">
         <v>-225.1543737</v>
@@ -3699,7 +3699,7 @@
         <v>-224.57501499</v>
       </c>
       <c r="H102" t="n">
-        <v>-225.147014659075</v>
+        <v>-225.1476656610052</v>
       </c>
     </row>
     <row r="103">
@@ -3722,7 +3722,7 @@
         <v>-0.569601268873934</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.5699725151062012</v>
+        <v>-0.5680980682373047</v>
       </c>
       <c r="F103" t="n">
         <v>-225.19876111</v>
@@ -3731,7 +3731,7 @@
         <v>-224.62916217</v>
       </c>
       <c r="H103" t="n">
-        <v>-225.1991346851062</v>
+        <v>-225.1972602382373</v>
       </c>
     </row>
     <row r="104">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.560883573796052</v>
+        <v>-0.5608775341915639</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.5609687566757202</v>
+        <v>-0.5587852001190186</v>
       </c>
       <c r="F104" t="n">
         <v>-225.28138813</v>
@@ -3763,7 +3763,7 @@
         <v>-224.72051097</v>
       </c>
       <c r="H104" t="n">
-        <v>-225.2814797266757</v>
+        <v>-225.279296170119</v>
       </c>
     </row>
     <row r="105">
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-0.5724336112603046</v>
+        <v>-0.5724268817603142</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.5703281760215759</v>
+        <v>-0.5746472477912903</v>
       </c>
       <c r="F105" t="n">
         <v>-225.17533471</v>
@@ -3795,7 +3795,7 @@
         <v>-224.6029051</v>
       </c>
       <c r="H105" t="n">
-        <v>-225.1732332760216</v>
+        <v>-225.1775523477913</v>
       </c>
     </row>
     <row r="106">
@@ -3815,10 +3815,10 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>-0.560940684743062</v>
+        <v>-0.5609355343722942</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.5610365867614746</v>
+        <v>-0.5605363249778748</v>
       </c>
       <c r="F106" t="n">
         <v>-225.27939779</v>
@@ -3827,7 +3827,7 @@
         <v>-224.71846323</v>
       </c>
       <c r="H106" t="n">
-        <v>-225.2794998167615</v>
+        <v>-225.2789995549779</v>
       </c>
     </row>
     <row r="107">
@@ -3850,7 +3850,7 @@
         <v>-0.5758777812767382</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.5830153226852417</v>
+        <v>-0.5806469917297363</v>
       </c>
       <c r="F107" t="n">
         <v>-225.16102831</v>
@@ -3859,7 +3859,7 @@
         <v>-224.58515417</v>
       </c>
       <c r="H107" t="n">
-        <v>-225.1681694926853</v>
+        <v>-225.1658011617297</v>
       </c>
     </row>
     <row r="108">
@@ -3882,7 +3882,7 @@
         <v>-0.5606373091302363</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.5566890239715576</v>
+        <v>-0.5554209351539612</v>
       </c>
       <c r="F108" t="n">
         <v>-225.29324447</v>
@@ -3891,7 +3891,7 @@
         <v>-224.73260567</v>
       </c>
       <c r="H108" t="n">
-        <v>-225.2892946939716</v>
+        <v>-225.288026605154</v>
       </c>
     </row>
     <row r="109">
@@ -3914,7 +3914,7 @@
         <v>-0.5615293212410584</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.5585054159164429</v>
+        <v>-0.5604317188262939</v>
       </c>
       <c r="F109" t="n">
         <v>-225.26027336</v>
@@ -3923,7 +3923,7 @@
         <v>-224.6987461</v>
       </c>
       <c r="H109" t="n">
-        <v>-225.2572515159164</v>
+        <v>-225.2591778188263</v>
       </c>
     </row>
     <row r="110">
@@ -3946,7 +3946,7 @@
         <v>-0.5780814474039325</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.575946569442749</v>
+        <v>-0.5791460275650024</v>
       </c>
       <c r="F110" t="n">
         <v>-225.15617158</v>
@@ -3955,7 +3955,7 @@
         <v>-224.57808957</v>
       </c>
       <c r="H110" t="n">
-        <v>-225.1540361394428</v>
+        <v>-225.157235597565</v>
       </c>
     </row>
     <row r="111">
@@ -3978,7 +3978,7 @@
         <v>-0.5688591060818556</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.5695622563362122</v>
+        <v>-0.5676748752593994</v>
       </c>
       <c r="F111" t="n">
         <v>-225.20752765</v>
@@ -3987,7 +3987,7 @@
         <v>-224.63867183</v>
       </c>
       <c r="H111" t="n">
-        <v>-225.2082340863362</v>
+        <v>-225.2063467052594</v>
       </c>
     </row>
     <row r="112">
@@ -4010,7 +4010,7 @@
         <v>-0.5625166461902426</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.5615901947021484</v>
+        <v>-0.5639261603355408</v>
       </c>
       <c r="F112" t="n">
         <v>-225.23297984</v>
@@ -4019,7 +4019,7 @@
         <v>-224.67046249</v>
       </c>
       <c r="H112" t="n">
-        <v>-225.2320526847022</v>
+        <v>-225.2343886503355</v>
       </c>
     </row>
     <row r="113">
@@ -4039,10 +4039,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.5605542349500487</v>
+        <v>-0.560549092035691</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.5612092018127441</v>
+        <v>-0.5612727999687195</v>
       </c>
       <c r="F113" t="n">
         <v>-225.29365502</v>
@@ -4051,7 +4051,7 @@
         <v>-224.73310719</v>
       </c>
       <c r="H113" t="n">
-        <v>-225.2943163918127</v>
+        <v>-225.2943799899687</v>
       </c>
     </row>
     <row r="114">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-0.560586638307199</v>
+        <v>-0.560594523113199</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.5599626898765564</v>
+        <v>-0.5593950152397156</v>
       </c>
       <c r="F114" t="n">
         <v>-225.29188001</v>
@@ -4083,7 +4083,7 @@
         <v>-224.73128797</v>
       </c>
       <c r="H114" t="n">
-        <v>-225.2912506598766</v>
+        <v>-225.2906829852397</v>
       </c>
     </row>
     <row r="115">
@@ -4106,7 +4106,7 @@
         <v>-0.5625839625295144</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.5641182661056519</v>
+        <v>-0.563640296459198</v>
       </c>
       <c r="F115" t="n">
         <v>-225.23131949</v>
@@ -4115,7 +4115,7 @@
         <v>-224.6687349</v>
       </c>
       <c r="H115" t="n">
-        <v>-225.2328531661057</v>
+        <v>-225.2323751964592</v>
       </c>
     </row>
     <row r="116">
@@ -4135,10 +4135,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-0.561562770006184</v>
+        <v>-0.5615726751466705</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.5706059336662292</v>
+        <v>-0.5723706483840942</v>
       </c>
       <c r="F116" t="n">
         <v>-225.25890354</v>
@@ -4147,7 +4147,7 @@
         <v>-224.69733086</v>
       </c>
       <c r="H116" t="n">
-        <v>-225.2679367936662</v>
+        <v>-225.2697015083841</v>
       </c>
     </row>
     <row r="117">
@@ -4170,7 +4170,7 @@
         <v>-0.56272243720466</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.5626206398010254</v>
+        <v>-0.5636255741119385</v>
       </c>
       <c r="F117" t="n">
         <v>-225.22796201</v>
@@ -4179,7 +4179,7 @@
         <v>-224.66523823</v>
       </c>
       <c r="H117" t="n">
-        <v>-225.227858869801</v>
+        <v>-225.2288638041119</v>
       </c>
     </row>
     <row r="118">
@@ -4199,10 +4199,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.5605495804208482</v>
+        <v>-0.5605635918196767</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.5653056502342224</v>
+        <v>-0.5595261454582214</v>
       </c>
       <c r="F118" t="n">
         <v>-225.29309193</v>
@@ -4211,7 +4211,7 @@
         <v>-224.73253026</v>
       </c>
       <c r="H118" t="n">
-        <v>-225.2978359102342</v>
+        <v>-225.2920564054582</v>
       </c>
     </row>
     <row r="119">
@@ -4234,7 +4234,7 @@
         <v>-0.569291076088146</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.567829966545105</v>
+        <v>-0.5708115696907043</v>
       </c>
       <c r="F119" t="n">
         <v>-225.20226637</v>
@@ -4243,7 +4243,7 @@
         <v>-224.63297687</v>
       </c>
       <c r="H119" t="n">
-        <v>-225.2008068365451</v>
+        <v>-225.2037884396907</v>
       </c>
     </row>
     <row r="120">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.5612016163428055</v>
+        <v>-0.5612005549317742</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.561751663684845</v>
+        <v>-0.5630632042884827</v>
       </c>
       <c r="F120" t="n">
         <v>-225.27051846</v>
@@ -4275,7 +4275,7 @@
         <v>-224.70931782</v>
       </c>
       <c r="H120" t="n">
-        <v>-225.2710694836848</v>
+        <v>-225.2723810242885</v>
       </c>
     </row>
     <row r="121">
@@ -4298,7 +4298,7 @@
         <v>-0.575158525334363</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.5684566497802734</v>
+        <v>-0.5779139995574951</v>
       </c>
       <c r="F121" t="n">
         <v>-225.16317223</v>
@@ -4307,7 +4307,7 @@
         <v>-224.58801136</v>
       </c>
       <c r="H121" t="n">
-        <v>-225.1564680097803</v>
+        <v>-225.1659253595575</v>
       </c>
     </row>
     <row r="122">
@@ -4327,10 +4327,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-0.5617663462780742</v>
+        <v>-0.5617677988057698</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.558096170425415</v>
+        <v>-0.5598741173744202</v>
       </c>
       <c r="F122" t="n">
         <v>-225.25323833</v>
@@ -4339,7 +4339,7 @@
         <v>-224.69147383</v>
       </c>
       <c r="H122" t="n">
-        <v>-225.2495700004254</v>
+        <v>-225.2513479473744</v>
       </c>
     </row>
     <row r="123">
@@ -4362,7 +4362,7 @@
         <v>-0.5766159054813811</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.5750510692596436</v>
+        <v>-0.5766205191612244</v>
       </c>
       <c r="F123" t="n">
         <v>-225.15913544</v>
@@ -4371,7 +4371,7 @@
         <v>-224.58252445</v>
       </c>
       <c r="H123" t="n">
-        <v>-225.1575755192596</v>
+        <v>-225.1591449691612</v>
       </c>
     </row>
     <row r="124">
@@ -4394,7 +4394,7 @@
         <v>-0.5604666029983394</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.5633220672607422</v>
+        <v>-0.5603052377700806</v>
       </c>
       <c r="F124" t="n">
         <v>-225.29737091</v>
@@ -4403,7 +4403,7 @@
         <v>-224.73690692</v>
       </c>
       <c r="H124" t="n">
-        <v>-225.3002289872607</v>
+        <v>-225.2972121577701</v>
       </c>
     </row>
     <row r="125">
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.5607918582855351</v>
+        <v>-0.5607757601270709</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.5619208812713623</v>
+        <v>-0.5589766502380371</v>
       </c>
       <c r="F125" t="n">
         <v>-225.28507851</v>
@@ -4435,7 +4435,7 @@
         <v>-224.72430525</v>
       </c>
       <c r="H125" t="n">
-        <v>-225.2862261312713</v>
+        <v>-225.283281900238</v>
       </c>
     </row>
     <row r="126">
@@ -4455,10 +4455,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-0.5607023349927557</v>
+        <v>-0.5607049854452557</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.557279109954834</v>
+        <v>-0.561260461807251</v>
       </c>
       <c r="F126" t="n">
         <v>-225.28758302</v>
@@ -4467,7 +4467,7 @@
         <v>-224.7268782</v>
       </c>
       <c r="H126" t="n">
-        <v>-225.2841573099548</v>
+        <v>-225.2881386618072</v>
       </c>
     </row>
     <row r="127">
@@ -4487,10 +4487,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.5611308588072581</v>
+        <v>-0.5611279302007588</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.5594013929367065</v>
+        <v>-0.5588874816894531</v>
       </c>
       <c r="F127" t="n">
         <v>-225.27287156</v>
@@ -4499,7 +4499,7 @@
         <v>-224.71174302</v>
       </c>
       <c r="H127" t="n">
-        <v>-225.2711444129367</v>
+        <v>-225.2706305016895</v>
       </c>
     </row>
     <row r="128">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.5799645737625649</v>
+        <v>-0.5799581083291854</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.5721038579940796</v>
+        <v>-0.5807766914367676</v>
       </c>
       <c r="F128" t="n">
         <v>-225.15398775</v>
@@ -4531,7 +4531,7 @@
         <v>-224.57402971</v>
       </c>
       <c r="H128" t="n">
-        <v>-225.1461335679941</v>
+        <v>-225.1548064014368</v>
       </c>
     </row>
     <row r="129">
@@ -4554,7 +4554,7 @@
         <v>-0.5697607049160757</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.5694788098335266</v>
+        <v>-0.5670619010925293</v>
       </c>
       <c r="F129" t="n">
         <v>-225.19701311</v>
@@ -4563,7 +4563,7 @@
         <v>-224.62725272</v>
       </c>
       <c r="H129" t="n">
-        <v>-225.1967315298335</v>
+        <v>-225.1943146210925</v>
       </c>
     </row>
     <row r="130">
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-0.5620302992331667</v>
+        <v>-0.5620289569015938</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.5622389316558838</v>
+        <v>-0.5624234676361084</v>
       </c>
       <c r="F130" t="n">
         <v>-225.24576069</v>
@@ -4595,7 +4595,7 @@
         <v>-224.68373139</v>
       </c>
       <c r="H130" t="n">
-        <v>-225.2459703216559</v>
+        <v>-225.2461548576361</v>
       </c>
     </row>
     <row r="131">
@@ -4618,7 +4618,7 @@
         <v>-0.560453262120135</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.5582085251808167</v>
+        <v>-0.5617213845252991</v>
       </c>
       <c r="F131" t="n">
         <v>-225.29819112</v>
@@ -4627,7 +4627,7 @@
         <v>-224.73773956</v>
       </c>
       <c r="H131" t="n">
-        <v>-225.2959480851808</v>
+        <v>-225.2994609445253</v>
       </c>
     </row>
     <row r="132">
@@ -4647,10 +4647,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-0.5616128537999822</v>
+        <v>-0.5616207624723879</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.5612825155258179</v>
+        <v>-0.5623677968978882</v>
       </c>
       <c r="F132" t="n">
         <v>-225.25751483</v>
@@ -4659,7 +4659,7 @@
         <v>-224.69589581</v>
       </c>
       <c r="H132" t="n">
-        <v>-225.2571783255258</v>
+        <v>-225.2582636068979</v>
       </c>
     </row>
     <row r="133">
@@ -4679,10 +4679,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.5721844336343846</v>
+        <v>-0.5721762327777742</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.5730153322219849</v>
+        <v>-0.5735949277877808</v>
       </c>
       <c r="F133" t="n">
         <v>-225.1768815</v>
@@ -4691,7 +4691,7 @@
         <v>-224.60470462</v>
       </c>
       <c r="H133" t="n">
-        <v>-225.177719952222</v>
+        <v>-225.1782995477878</v>
       </c>
     </row>
     <row r="134">
@@ -4711,10 +4711,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.560622326810712</v>
+        <v>-0.5606284020604119</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.5630077123641968</v>
+        <v>-0.5596491098403931</v>
       </c>
       <c r="F134" t="n">
         <v>-225.29055603</v>
@@ -4723,7 +4723,7 @@
         <v>-224.72992999</v>
       </c>
       <c r="H134" t="n">
-        <v>-225.2929377023642</v>
+        <v>-225.2895790998404</v>
       </c>
     </row>
     <row r="135">
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-0.5604872616893085</v>
+        <v>-0.5604929171248786</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.5619717836380005</v>
+        <v>-0.5610001087188721</v>
       </c>
       <c r="F135" t="n">
         <v>-225.29602772</v>
@@ -4755,7 +4755,7 @@
         <v>-224.73553614</v>
       </c>
       <c r="H135" t="n">
-        <v>-225.297507923638</v>
+        <v>-225.2965362487189</v>
       </c>
     </row>
     <row r="136">
@@ -4775,10 +4775,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.579816409943238</v>
+        <v>-0.5798126420202701</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.5720415711402893</v>
+        <v>-0.5721801519393921</v>
       </c>
       <c r="F136" t="n">
         <v>-225.15392804</v>
@@ -4787,7 +4787,7 @@
         <v>-224.57411391</v>
       </c>
       <c r="H136" t="n">
-        <v>-225.1461554811403</v>
+        <v>-225.1462940619394</v>
       </c>
     </row>
     <row r="137">
@@ -4807,10 +4807,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-0.5609129082237254</v>
+        <v>-0.5609053568946925</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.5558650493621826</v>
+        <v>-0.558210551738739</v>
       </c>
       <c r="F137" t="n">
         <v>-225.28040488</v>
@@ -4819,7 +4819,7 @@
         <v>-224.71949945</v>
       </c>
       <c r="H137" t="n">
-        <v>-225.2753644993622</v>
+        <v>-225.2777100017387</v>
       </c>
     </row>
     <row r="138">
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-0.5618254816025769</v>
+        <v>-0.5618158743694748</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.5609177350997925</v>
+        <v>-0.5609594583511353</v>
       </c>
       <c r="F138" t="n">
         <v>-225.25177706</v>
@@ -4851,7 +4851,7 @@
         <v>-224.68996186</v>
       </c>
       <c r="H138" t="n">
-        <v>-225.2508795950998</v>
+        <v>-225.2509213183511</v>
       </c>
     </row>
     <row r="139">
@@ -4874,7 +4874,7 @@
         <v>-0.5606188441136228</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.5594103336334229</v>
+        <v>-0.5561012625694275</v>
       </c>
       <c r="F139" t="n">
         <v>-225.29389776</v>
@@ -4883,7 +4883,7 @@
         <v>-224.73327914</v>
       </c>
       <c r="H139" t="n">
-        <v>-225.2926894736334</v>
+        <v>-225.2893804025694</v>
       </c>
     </row>
     <row r="140">
@@ -4906,7 +4906,7 @@
         <v>-0.5627929234369462</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.5626439452171326</v>
+        <v>-0.5634582042694092</v>
       </c>
       <c r="F140" t="n">
         <v>-225.22626556</v>
@@ -4915,7 +4915,7 @@
         <v>-224.66346976</v>
       </c>
       <c r="H140" t="n">
-        <v>-225.2261137052171</v>
+        <v>-225.2269279642694</v>
       </c>
     </row>
     <row r="141">
@@ -4938,7 +4938,7 @@
         <v>-0.5712561080376033</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.570188581943512</v>
+        <v>-0.5687133073806763</v>
       </c>
       <c r="F141" t="n">
         <v>-225.18332853</v>
@@ -4947,7 +4947,7 @@
         <v>-224.61207274</v>
       </c>
       <c r="H141" t="n">
-        <v>-225.1822613219435</v>
+        <v>-225.1807860473807</v>
       </c>
     </row>
     <row r="142">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-0.5610967561687181</v>
+        <v>-0.5610930198979251</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.5631361603736877</v>
+        <v>-0.5634092092514038</v>
       </c>
       <c r="F142" t="n">
         <v>-225.27401562</v>
@@ -4979,7 +4979,7 @@
         <v>-224.71292172</v>
       </c>
       <c r="H142" t="n">
-        <v>-225.2760578803737</v>
+        <v>-225.2763309292514</v>
       </c>
     </row>
     <row r="143">
@@ -5002,7 +5002,7 @@
         <v>-0.5614395524990284</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.5611593723297119</v>
+        <v>-0.5587803721427917</v>
       </c>
       <c r="F143" t="n">
         <v>-225.26295511</v>
@@ -5011,7 +5011,7 @@
         <v>-224.70151546</v>
       </c>
       <c r="H143" t="n">
-        <v>-225.2626748323297</v>
+        <v>-225.2602958321428</v>
       </c>
     </row>
     <row r="144">
@@ -5031,10 +5031,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.5623160874519948</v>
+        <v>-0.5623254321789015</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.5631526708602905</v>
+        <v>-0.5654448866844177</v>
       </c>
       <c r="F144" t="n">
         <v>-225.23788123</v>
@@ -5043,7 +5043,7 @@
         <v>-224.67555694</v>
       </c>
       <c r="H144" t="n">
-        <v>-225.2387096108603</v>
+        <v>-225.2410018266844</v>
       </c>
     </row>
     <row r="145">
@@ -5066,7 +5066,7 @@
         <v>-0.5607582159601696</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.5639156103134155</v>
+        <v>-0.5637862682342529</v>
       </c>
       <c r="F145" t="n">
         <v>-225.28923695</v>
@@ -5075,7 +5075,7 @@
         <v>-224.72847849</v>
       </c>
       <c r="H145" t="n">
-        <v>-225.2923941003134</v>
+        <v>-225.2922647582342</v>
       </c>
     </row>
     <row r="146">
@@ -5098,7 +5098,7 @@
         <v>-0.5691439625219824</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.56871497631073</v>
+        <v>-0.5685797333717346</v>
       </c>
       <c r="F146" t="n">
         <v>-225.20402096</v>
@@ -5107,7 +5107,7 @@
         <v>-224.63487986</v>
       </c>
       <c r="H146" t="n">
-        <v>-225.2035948363107</v>
+        <v>-225.2034595933717</v>
       </c>
     </row>
     <row r="147">
@@ -5127,10 +5127,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.5613264751055014</v>
+        <v>-0.5613165956987123</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.5609919428825378</v>
+        <v>-0.5647565126419067</v>
       </c>
       <c r="F147" t="n">
         <v>-225.26682945</v>
@@ -5139,7 +5139,7 @@
         <v>-224.70551355</v>
       </c>
       <c r="H147" t="n">
-        <v>-225.2665054928825</v>
+        <v>-225.2702700626419</v>
       </c>
     </row>
     <row r="148">
@@ -5162,7 +5162,7 @@
         <v>-0.5684529053410454</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.5696116089820862</v>
+        <v>-0.5665242075920105</v>
       </c>
       <c r="F148" t="n">
         <v>-225.21276673</v>
@@ -5171,7 +5171,7 @@
         <v>-224.64431333</v>
       </c>
       <c r="H148" t="n">
-        <v>-225.2139249389821</v>
+        <v>-225.210837537592</v>
       </c>
     </row>
     <row r="149">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.5800690975757337</v>
+        <v>-0.5800617814879363</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.5775871872901917</v>
+        <v>-0.5792932510375977</v>
       </c>
       <c r="F149" t="n">
         <v>-225.15379445</v>
@@ -5203,7 +5203,7 @@
         <v>-224.57373042</v>
       </c>
       <c r="H149" t="n">
-        <v>-225.1513176072902</v>
+        <v>-225.1530236710376</v>
       </c>
     </row>
     <row r="150">
@@ -5223,10 +5223,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.5748118534400402</v>
+        <v>-0.5748155319000747</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.5684173107147217</v>
+        <v>-0.5794080495834351</v>
       </c>
       <c r="F150" t="n">
         <v>-225.16433211</v>
@@ -5235,7 +5235,7 @@
         <v>-224.58951531</v>
       </c>
       <c r="H150" t="n">
-        <v>-225.1579326207147</v>
+        <v>-225.1689233595834</v>
       </c>
     </row>
     <row r="151">
@@ -5255,10 +5255,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-0.5744752493739842</v>
+        <v>-0.5744812008905253</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.5694042444229126</v>
+        <v>-0.5727424621582031</v>
       </c>
       <c r="F151" t="n">
         <v>-225.16554691</v>
@@ -5267,7 +5267,7 @@
         <v>-224.59106471</v>
       </c>
       <c r="H151" t="n">
-        <v>-225.1604689544229</v>
+        <v>-225.1638071721582</v>
       </c>
     </row>
     <row r="152">
@@ -5290,7 +5290,7 @@
         <v>-0.5604742136184562</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.562705397605896</v>
+        <v>-0.5652203559875488</v>
       </c>
       <c r="F152" t="n">
         <v>-225.29676287</v>
@@ -5299,7 +5299,7 @@
         <v>-224.73628701</v>
       </c>
       <c r="H152" t="n">
-        <v>-225.2989924076059</v>
+        <v>-225.3015073659876</v>
       </c>
     </row>
     <row r="153">
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-0.5619297059413176</v>
+        <v>-0.5619188996383899</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.558741569519043</v>
+        <v>-0.5615818500518799</v>
       </c>
       <c r="F153" t="n">
         <v>-225.24880252</v>
@@ -5331,7 +5331,7 @@
         <v>-224.68688256</v>
       </c>
       <c r="H153" t="n">
-        <v>-225.245624129519</v>
+        <v>-225.2484644100519</v>
       </c>
     </row>
   </sheetData>
